--- a/model_exports/labels/2.0_False_False_5_4.xlsx
+++ b/model_exports/labels/2.0_False_False_5_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C731"/>
+  <dimension ref="A1:C732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,20 +453,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-497139824780787712</t>
+          <t>t-494301276121731072</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-497141925451792384</t>
+          <t>t-497139824780787712</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-497161697371893760</t>
+          <t>t-497141925451792384</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-497242468627124224</t>
+          <t>t-497161697371893760</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,7 +505,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-497474058641215489</t>
+          <t>t-497242468627124224</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -518,20 +518,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-497485019451883520</t>
+          <t>t-497474058641215489</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-511851013155090432</t>
+          <t>t-497485019451883520</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,20 +544,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-512006361937616896</t>
+          <t>t-517204809452380161</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-512017939579432960</t>
+          <t>t-561169293573115904</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -570,7 +570,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-610974241895354368</t>
+          <t>t-624374054338867201</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -583,7 +583,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-624374054338867201</t>
+          <t>t-627039115188383744</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -596,7 +596,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-1027818664391847936</t>
+          <t>t-629748063494537216</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -609,63 +609,63 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-1027909740905553920</t>
+          <t>t-629757802915848193</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-501433457286053889</t>
+          <t>t-759240736864870400</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-501490224640573440</t>
+          <t>t-1027818664391847936</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-551476214402387968</t>
+          <t>t-1027909740905553920</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-551489050045988864</t>
+          <t>t-501433457286053889</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -674,20 +674,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-608798073561612289</t>
+          <t>t-501490224640573440</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-683960479224586240</t>
+          <t>t-521738184288251906</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -700,7 +700,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-684033292694327296</t>
+          <t>t-521768704259162112</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -713,7 +713,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-684082364117585920</t>
+          <t>t-601392774370340865</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -726,11 +726,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-684154242035089408</t>
+          <t>t-648290405872627712</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -739,20 +739,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-719525216439910400</t>
+          <t>t-681917420068564992</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-719704738913083392</t>
+          <t>t-682618491283857408</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -765,33 +765,33 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-738281921046675456</t>
+          <t>t-683960479224586240</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-738404067647455232</t>
+          <t>t-684033292694327296</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-738429326224302080</t>
+          <t>t-684082364117585920</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -804,33 +804,33 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-738429350467543044</t>
+          <t>t-684154242035089408</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-798305189924982784</t>
+          <t>t-694942679688437760</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-858824188815056896</t>
+          <t>t-695354495606259712</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -843,59 +843,59 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-859408582407749634</t>
+          <t>t-696194593700712448</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-859423315986874372</t>
+          <t>t-707911328145477632</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-859882605604425731</t>
+          <t>t-707931200627875840</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-865644367372967936</t>
+          <t>t-708036809603698689</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-866152720700514304</t>
+          <t>t-708038329514790912</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -908,11 +908,11 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-876890893143298050</t>
+          <t>t-708041345638776832</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-876899745704415232</t>
+          <t>t-708249950530961408</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -934,7 +934,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-876909191105048577</t>
+          <t>t-708273072424554497</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -947,7 +947,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-876910840670302209</t>
+          <t>t-708363296160747520</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -960,11 +960,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-876983597760172032</t>
+          <t>t-708384601509601280</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -973,33 +973,33 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-877064271393370112</t>
+          <t>t-708389352393539585</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-877647799629733893</t>
+          <t>t-708444180087971840</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-877649383340298240</t>
+          <t>t-709190294621835264</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1012,20 +1012,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-878107705168334848</t>
+          <t>t-709228058117480449</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-878263651773407233</t>
+          <t>t-709405662791372802</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1038,33 +1038,33 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-878265674975461376</t>
+          <t>t-709892861110657024</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-878542338414362624</t>
+          <t>t-710265095104946176</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-880275227367821312</t>
+          <t>t-775697386924445696</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1077,46 +1077,46 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-893450286144131072</t>
+          <t>t-815615714082095105</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-900539002423562240</t>
+          <t>t-816012131535613952</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-900561270843334662</t>
+          <t>t-816043428630839296</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-900690069668933632</t>
+          <t>t-816046695377158145</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1129,72 +1129,72 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-922305869466890240</t>
+          <t>t-816056629867188225</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-959172176346836993</t>
+          <t>t-816367923770118149</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-960921688975331329</t>
+          <t>t-816380623434592257</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-961028171192852485</t>
+          <t>t-848784048755531776</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-961254369663602688</t>
+          <t>t-848852185962037248</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-1022084644039258112</t>
+          <t>t-848864915762929664</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1207,20 +1207,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-1030587514820669441</t>
+          <t>t-848891572318072832</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-1030625730407874563</t>
+          <t>t-849117747430797312</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1233,7 +1233,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-1031145618503360513</t>
+          <t>t-849222321772658688</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1246,11 +1246,11 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-1031309689848508416</t>
+          <t>t-849255695249625088</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -1259,63 +1259,63 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-754609055683915776</t>
+          <t>t-849369868306665472</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-762401879758372864</t>
+          <t>t-849634891255951364</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-762402279601344512</t>
+          <t>t-849637507117568000</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-762404827229892608</t>
+          <t>t-849667565186146304</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-778024515909537792</t>
+          <t>t-849686849312501763</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1324,137 +1324,137 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-827438952974004224</t>
+          <t>t-849743357312024576</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-1012224879310057472</t>
+          <t>t-850026468906340353</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-608562753129840640</t>
+          <t>t-850319148420694016</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-798458981752573952</t>
+          <t>t-850426637086842884</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-798478057195507713</t>
+          <t>t-850856929295552513</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-798508699044220928</t>
+          <t>t-858824188815056896</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-798530247192965122</t>
+          <t>t-859408582407749634</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-799607144802750464</t>
+          <t>t-859423315986874372</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-816207402437636096</t>
+          <t>t-859882605604425731</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-841634951439220736</t>
+          <t>t-865644367372967936</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-950256330316615680</t>
+          <t>t-866152720700514304</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1467,7 +1467,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-958555465675362304</t>
+          <t>t-887086137789091841</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1480,7 +1480,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-538858836992331776</t>
+          <t>t-902187406123835394</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1493,7 +1493,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-745595825670131714</t>
+          <t>t-902225607563644928</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1506,7 +1506,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-745600923448258560</t>
+          <t>t-909776370410168323</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1519,11 +1519,11 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-788842589554343938</t>
+          <t>t-965645492616036357</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -1532,20 +1532,20 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-611838090278121474</t>
+          <t>t-965648872474398721</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-612267884463673344</t>
+          <t>t-965652051077357569</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1558,7 +1558,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-612280320520425472</t>
+          <t>t-966072585061625856</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1571,7 +1571,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-618057796345593856</t>
+          <t>t-966155045300588545</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1584,50 +1584,50 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-619513224057061376</t>
+          <t>t-966356829596016640</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-639446444949180417</t>
+          <t>t-966362179913093121</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-752623570010812416</t>
+          <t>t-966449125788090370</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-752689111933214722</t>
+          <t>t-966450069024239616</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -1636,7 +1636,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-752696262009450496</t>
+          <t>t-966465261950906369</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1649,20 +1649,20 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-752724839081791488</t>
+          <t>t-966698278606856197</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-999634090503569409</t>
+          <t>t-966704060270370817</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1675,7 +1675,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-1007699633349582849</t>
+          <t>t-966706278016999424</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1688,7 +1688,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-1007719195323269122</t>
+          <t>t-966769885220163586</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1701,20 +1701,20 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-1008223489369796609</t>
+          <t>t-1018804138195513344</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-1008226683005087744</t>
+          <t>t-1018807229267496962</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1727,7 +1727,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-1008430016873394176</t>
+          <t>t-1018819644377923585</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1740,11 +1740,11 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-1008458331160182784</t>
+          <t>t-1018962868379750402</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -1753,11 +1753,11 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-1008771230261039104</t>
+          <t>t-1019003195874512897</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
@@ -1766,11 +1766,11 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-1009061662731767808</t>
+          <t>t-1019014466770333697</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-1009095412505022464</t>
+          <t>t-1019698120098222080</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1792,20 +1792,20 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-1009284771766140929</t>
+          <t>t-1030587514820669441</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-1009553393331986433</t>
+          <t>t-1030625730407874563</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1818,33 +1818,33 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-1050075728891535361</t>
+          <t>t-1031145618503360513</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-1050076017593745408</t>
+          <t>t-1031309689848508416</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-1050077658590134272</t>
+          <t>t-1054831014869123073</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1857,24 +1857,24 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-1050092626786037760</t>
+          <t>t-1054887299698380800</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-1050210928594173952</t>
+          <t>t-1055927061867585536</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -1883,11 +1883,11 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-1050446607055896576</t>
+          <t>t-975411428663345152</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
         <v>1</v>
@@ -1896,20 +1896,20 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-1051200746312663040</t>
+          <t>t-507610683022643200</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-519554920140124160</t>
+          <t>t-762401879758372864</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1922,11 +1922,11 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-567811309744705538</t>
+          <t>t-762402279601344512</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -1935,20 +1935,20 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-580481361141743616</t>
+          <t>t-762404827229892608</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-697497279213625344</t>
+          <t>t-819315426853273600</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1961,11 +1961,11 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-697558252012355585</t>
+          <t>t-538622557084082176</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -1974,11 +1974,11 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-832310546871484416</t>
+          <t>t-582884078073987072</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -1987,20 +1987,20 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-858145943971037184</t>
+          <t>t-582893069168611328</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-858516314167627776</t>
+          <t>t-594694315915350017</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2013,7 +2013,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-868226298719633408</t>
+          <t>t-606774570255654912</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2026,7 +2026,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-524878421172953088</t>
+          <t>t-641417749898522624</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2039,20 +2039,20 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-676490487717625856</t>
+          <t>t-746432967740882945</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-676517665188507650</t>
+          <t>t-765818303898058752</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2065,33 +2065,33 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-897129980584439812</t>
+          <t>t-768798517900906496</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-630358013853990912</t>
+          <t>t-816207402437636096</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-915529742002135041</t>
+          <t>t-893144326049419264</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2104,7 +2104,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-915535227245776896</t>
+          <t>t-928952366598037506</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2117,72 +2117,72 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-948484381987037185</t>
+          <t>t-976076558824767489</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-948486603227451392</t>
+          <t>t-1047054739547013120</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-948505461745168384</t>
+          <t>t-1047068713986547712</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-948538940134477824</t>
+          <t>t-1047079117244399617</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-948573984802689025</t>
+          <t>t-1047083573738500096</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-665687399033397248</t>
+          <t>t-506695122298212352</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -2195,7 +2195,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-682141165802631168</t>
+          <t>t-612750086443917313</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2208,7 +2208,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-928583361618169856</t>
+          <t>t-757940960609173505</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2221,11 +2221,11 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-542093659286429696</t>
+          <t>t-979396065278427139</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -2234,11 +2234,11 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-547652103607697408</t>
+          <t>t-981152225723604993</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -2247,11 +2247,11 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-583930739512713216</t>
+          <t>t-676063553162379265</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
         <v>1</v>
@@ -2260,24 +2260,24 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-546995440701296643</t>
+          <t>t-876870634885844994</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-547131830642569216</t>
+          <t>t-876897987485630464</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -2286,20 +2286,20 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-952138958368051200</t>
+          <t>t-876995236253376512</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-952754172880863232</t>
+          <t>t-910574474956812289</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -2312,7 +2312,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-560903834407817217</t>
+          <t>t-984799310717030402</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -2325,20 +2325,20 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-611996097129619456</t>
+          <t>t-985113601743704064</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-987722164903251968</t>
+          <t>t-985197038014001152</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2351,7 +2351,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-611182304984109057</t>
+          <t>t-774727266823581696</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -2364,7 +2364,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-902218968345272321</t>
+          <t>t-878362748232622081</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -2377,11 +2377,11 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-598299676807340033</t>
+          <t>t-978735824383590400</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
@@ -2390,7 +2390,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-737748026983354372</t>
+          <t>t-1000477141224558594</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -2403,59 +2403,59 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-737752255571595264</t>
+          <t>t-697866091025080320</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-901151504714870784</t>
+          <t>t-681802042885697536</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-986530301030682624</t>
+          <t>t-682128192019234816</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-708373253648207873</t>
+          <t>t-682147581405859841</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-764015991344869376</t>
+          <t>t-682223092198936576</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -2468,7 +2468,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-766291748704423936</t>
+          <t>t-682287065824931840</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2481,7 +2481,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-826760200636002305</t>
+          <t>t-682459381347254272</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2494,24 +2494,24 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-870660332800397312</t>
+          <t>t-682632199527641089</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-870684149173977089</t>
+          <t>t-682755737790099456</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -2520,11 +2520,11 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-906974272832376832</t>
+          <t>t-682908634020470785</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -2533,11 +2533,11 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-961914631135617025</t>
+          <t>t-682915879026339840</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -2546,11 +2546,11 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-941641219024748544</t>
+          <t>t-683017640638582784</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -2559,20 +2559,20 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-890798435175063552</t>
+          <t>t-683036658942513152</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-1006535367464509440</t>
+          <t>t-683077568287866880</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2585,24 +2585,24 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-1006670876169949190</t>
+          <t>t-683235960692314112</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-730685047137800192</t>
+          <t>t-683258563628777472</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
         <v>1</v>
@@ -2611,33 +2611,33 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-730687533638619136</t>
+          <t>t-683386799184543745</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-840282206979444737</t>
+          <t>t-683399457254326272</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-840289139450925056</t>
+          <t>t-683602691965206528</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2650,24 +2650,24 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-872405308236337153</t>
+          <t>t-683628764622905344</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-1005457960703754240</t>
+          <t>t-683644184683753472</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -2676,20 +2676,20 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-992428512744222721</t>
+          <t>t-683649428587155456</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-892821066799820805</t>
+          <t>t-683773064040050688</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2702,98 +2702,98 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-1054403005032947712</t>
+          <t>t-683968472968228864</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-898040952396193792</t>
+          <t>t-683979793273065473</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-898113774225301505</t>
+          <t>t-684007082555748352</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-898119475089686528</t>
+          <t>t-684323489562558465</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-898375447507030017</t>
+          <t>t-685408547975331840</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-898397795245215744</t>
+          <t>t-540815358715002880</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-599936713796886528</t>
+          <t>t-887680971797131264</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-601913063172771840</t>
+          <t>t-887683274591662080</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2806,7 +2806,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-602589391198900226</t>
+          <t>t-887690953800253442</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2819,7 +2819,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-715206020902084609</t>
+          <t>t-887715764404449281</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2832,7 +2832,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-715208550243557376</t>
+          <t>t-887751540173414404</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2845,20 +2845,20 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-715210823002562560</t>
+          <t>t-887923666507489280</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-715215011178803200</t>
+          <t>t-887928668626055169</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2871,7 +2871,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-721832870604640260</t>
+          <t>t-887976731767918592</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2884,20 +2884,20 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-721856912548044800</t>
+          <t>t-888083621801844737</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-722873292755828736</t>
+          <t>t-953935668199215104</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2910,46 +2910,46 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-745382805253677057</t>
+          <t>t-953991296196149248</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-746718356405882880</t>
+          <t>t-543357722591514624</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-833578679338942464</t>
+          <t>t-1020278662699134976</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-898515685369946113</t>
+          <t>t-547652103607697408</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2962,7 +2962,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-913139045009633280</t>
+          <t>t-552038248218767360</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2975,11 +2975,11 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-913178067195088902</t>
+          <t>t-552266751304798209</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -2988,20 +2988,20 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-913438297258708992</t>
+          <t>t-949552218650365952</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-925358435398488064</t>
+          <t>t-568623295811194880</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3014,72 +3014,72 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-992252736560222210</t>
+          <t>t-879367414802153472</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-998567520113225733</t>
+          <t>t-603598228022501376</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-1014570924681687042</t>
+          <t>t-598299676807340033</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-1028684190169149440</t>
+          <t>t-986530301030682624</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-1028764502517592065</t>
+          <t>t-696837842702446592</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-1052665207342944261</t>
+          <t>t-698546841881853953</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -3092,59 +3092,59 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-1053196089317306368</t>
+          <t>t-733769545261944833</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-1053286918086103042</t>
+          <t>t-764015991344869376</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-1054369632671404032</t>
+          <t>t-791266893470568448</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-636611275666128896</t>
+          <t>t-791268686447378433</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-697902764966301696</t>
+          <t>t-826760200636002305</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3157,24 +3157,24 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-748353178270199808</t>
+          <t>t-849724022598139904</t>
         </is>
       </c>
       <c r="B210" t="n">
         <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-763041051426775040</t>
+          <t>t-870660332800397312</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
@@ -3183,7 +3183,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-763066608868794368</t>
+          <t>t-870684149173977089</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -3196,7 +3196,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-763135787424636928</t>
+          <t>t-904717770524372993</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -3209,33 +3209,33 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-885230061556813824</t>
+          <t>t-906974272832376832</t>
         </is>
       </c>
       <c r="B214" t="n">
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-885519574443020288</t>
+          <t>t-987005505154535425</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-967489391517192192</t>
+          <t>t-809566350368796673</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -3248,20 +3248,20 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-1008536493269237760</t>
+          <t>t-913204200187863040</t>
         </is>
       </c>
       <c r="B217" t="n">
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-1016850546236542983</t>
+          <t>t-903173716451909632</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -3274,7 +3274,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-683790340701073408</t>
+          <t>t-681167053609283584</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -3287,7 +3287,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-538650662780022784</t>
+          <t>t-861649200160710656</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -3300,7 +3300,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-581999689727389696</t>
+          <t>t-883046827251179521</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -3313,7 +3313,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-586160130313625600</t>
+          <t>t-883048887786909698</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -3326,20 +3326,20 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-605776092780044291</t>
+          <t>t-883064523128791040</t>
         </is>
       </c>
       <c r="B223" t="n">
         <v>1</v>
       </c>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-609714781507993601</t>
+          <t>t-883077275679432704</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -3352,7 +3352,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-609790992309469184</t>
+          <t>t-733452580194410497</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -3365,20 +3365,20 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-609807635727151104</t>
+          <t>t-840282206979444737</t>
         </is>
       </c>
       <c r="B226" t="n">
         <v>1</v>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-610006959677382657</t>
+          <t>t-840289139450925056</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -3391,11 +3391,11 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-610466198136954881</t>
+          <t>t-748127558550560768</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -3404,11 +3404,11 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-651743798721122304</t>
+          <t>t-1005457960703754240</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -3417,37 +3417,37 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-673837939248472064</t>
+          <t>t-860527262709493760</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-707575261483687937</t>
+          <t>t-892821066799820805</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-755726869270523904</t>
+          <t>t-898040952396193792</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C232" t="n">
         <v>1</v>
@@ -3456,11 +3456,11 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-767994872578056192</t>
+          <t>t-898113774225301505</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -3469,20 +3469,20 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-783921439044841474</t>
+          <t>t-910451192064614401</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-784017385615265792</t>
+          <t>t-507905858265960448</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3495,63 +3495,63 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-784336997477261312</t>
+          <t>t-514175192319680513</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-784835805999198208</t>
+          <t>t-640924573647503360</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-802968858214760448</t>
+          <t>t-641489320088436736</t>
         </is>
       </c>
       <c r="B238" t="n">
         <v>1</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-802970857136123904</t>
+          <t>t-726041703153545216</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-802986234171768832</t>
+          <t>t-726754497737826305</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -3560,7 +3560,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-802996470555279360</t>
+          <t>t-821459572263100416</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -3573,7 +3573,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-803023904860151808</t>
+          <t>t-851625591652720640</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -3586,7 +3586,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-803063479473176576</t>
+          <t>t-852529810760908801</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -3599,33 +3599,33 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-803165461336555521</t>
+          <t>t-852624282018615296</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-803184972723081216</t>
+          <t>t-870028367990599681</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-803191488880513024</t>
+          <t>t-894616667350872064</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -3638,7 +3638,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-803213114628014080</t>
+          <t>t-895668017060651009</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -3651,63 +3651,63 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-803415757417758721</t>
+          <t>t-925358435398488064</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-804486553280069633</t>
+          <t>t-952979792495816704</t>
         </is>
       </c>
       <c r="B249" t="n">
         <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-832931106873819136</t>
+          <t>t-620793830413959168</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-849475288652238849</t>
+          <t>t-628272138890252288</t>
         </is>
       </c>
       <c r="B251" t="n">
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-894936422980964352</t>
+          <t>t-1016850546236542983</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C252" t="n">
         <v>1</v>
@@ -3716,59 +3716,59 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-903533073358352385</t>
+          <t>t-619624637685755904</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-903589529143189504</t>
+          <t>t-796087988140834817</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-986933673697120257</t>
+          <t>t-836289804664979457</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-1000764381108555776</t>
+          <t>t-958376851084337153</t>
         </is>
       </c>
       <c r="B256" t="n">
         <v>1</v>
       </c>
       <c r="C256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-1026228357996969984</t>
+          <t>t-577773253898477568</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3781,7 +3781,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-1037619174145712128</t>
+          <t>t-577808831918579712</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -3794,11 +3794,11 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-1039508390869786629</t>
+          <t>t-594878604397432832</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -3807,11 +3807,11 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-1039553624345661440</t>
+          <t>t-660890514741399552</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -3820,20 +3820,20 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-1039619721644191744</t>
+          <t>t-661115206525915136</t>
         </is>
       </c>
       <c r="B261" t="n">
         <v>1</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-538818433920827392</t>
+          <t>t-661147212135727104</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3846,33 +3846,33 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-541450804008218624</t>
+          <t>t-661201099085377537</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-685265326112559104</t>
+          <t>t-673837939248472064</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-903255663417204736</t>
+          <t>t-721969035412422656</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3885,33 +3885,33 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-561705902466957314</t>
+          <t>t-722671206881746944</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-702894496737071105</t>
+          <t>t-726061174727532544</t>
         </is>
       </c>
       <c r="B267" t="n">
         <v>1</v>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-727758683510329344</t>
+          <t>t-739781293882347520</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3924,20 +3924,20 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-727889856274247680</t>
+          <t>t-745683270160027648</t>
         </is>
       </c>
       <c r="B269" t="n">
         <v>0</v>
       </c>
       <c r="C269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-795702151049834496</t>
+          <t>t-845940693256286208</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3950,46 +3950,46 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-649689751415599105</t>
+          <t>t-919174352289005568</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-561177173151977473</t>
+          <t>t-919528265718665216</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-561426613901209600</t>
+          <t>t-968863674306834432</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-561478083538997248</t>
+          <t>t-1000764381108555776</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -4002,20 +4002,20 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-561531868710207489</t>
+          <t>t-1014627656082579457</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-561552888548560899</t>
+          <t>t-1045126070540865541</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -4028,11 +4028,11 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-561569968660439040</t>
+          <t>t-696805827110428676</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C277" t="n">
         <v>1</v>
@@ -4041,11 +4041,11 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-561719764557774848</t>
+          <t>t-726931802141659137</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C278" t="n">
         <v>1</v>
@@ -4054,24 +4054,24 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-561830425656852480</t>
+          <t>t-1026494793466048518</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-562238606618939392</t>
+          <t>t-666910428551897088</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -4080,20 +4080,20 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-562243257879773184</t>
+          <t>t-670921727346614272</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-562251699403096064</t>
+          <t>t-821117207245713408</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -4106,11 +4106,11 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-562279318081269760</t>
+          <t>t-563347902408695811</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -4119,11 +4119,11 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-562339945067847680</t>
+          <t>t-755764875155083264</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-562639830182821889</t>
+          <t>t-561177173151977473</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -4145,50 +4145,50 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-563230595221037057</t>
+          <t>t-561426613901209600</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-563397372966076416</t>
+          <t>t-561478083538997248</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-570999709160116224</t>
+          <t>t-561531868710207489</t>
         </is>
       </c>
       <c r="B288" t="n">
         <v>1</v>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-571255966727053312</t>
+          <t>t-561552888548560899</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-686490326228402176</t>
+          <t>t-561569968660439040</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -4210,7 +4210,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-687307828932030464</t>
+          <t>t-561719764557774848</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -4223,7 +4223,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-698124151282864129</t>
+          <t>t-561830425656852480</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -4236,20 +4236,20 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-698267386730975232</t>
+          <t>t-562238606618939392</t>
         </is>
       </c>
       <c r="B293" t="n">
         <v>1</v>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-698288943490535428</t>
+          <t>t-562243257879773184</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -4262,7 +4262,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-698457478183301120</t>
+          <t>t-562251699403096064</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -4275,20 +4275,20 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-698469723680464897</t>
+          <t>t-562279318081269760</t>
         </is>
       </c>
       <c r="B296" t="n">
         <v>1</v>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-698599200850898944</t>
+          <t>t-562339945067847680</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -4301,7 +4301,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-698812315353903104</t>
+          <t>t-562639830182821889</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -4314,11 +4314,11 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-722677158112587776</t>
+          <t>t-563230595221037057</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C299" t="n">
         <v>1</v>
@@ -4327,46 +4327,46 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-628489671656517632</t>
+          <t>t-563397372966076416</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-854766668387684352</t>
+          <t>t-573120640175112192</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-855160087563907072</t>
+          <t>t-592720340289224705</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-855212425251086337</t>
+          <t>t-722677158112587776</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -4379,20 +4379,20 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-992126872036233224</t>
+          <t>t-736272987683426305</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-993085432052273153</t>
+          <t>t-772934103733788672</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -4405,72 +4405,72 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-817491496857255936</t>
+          <t>t-772960588171403264</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-615316042294890496</t>
+          <t>t-773538620472979456</t>
         </is>
       </c>
       <c r="B307" t="n">
         <v>1</v>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-798356661148655616</t>
+          <t>t-773979956305100800</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-798650812511588352</t>
+          <t>t-894726430050754561</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-995839519449640960</t>
+          <t>t-984138305477505025</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-764130662836084739</t>
+          <t>t-998345989382705152</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -4483,7 +4483,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-599363330575364096</t>
+          <t>t-567287806645395457</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -4496,50 +4496,50 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-839501967894405121</t>
+          <t>t-850359691771293697</t>
         </is>
       </c>
       <c r="B313" t="n">
         <v>1</v>
       </c>
       <c r="C313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-839604530048299008</t>
+          <t>t-887375379186548736</t>
         </is>
       </c>
       <c r="B314" t="n">
         <v>1</v>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-609166003570802689</t>
+          <t>t-764130662836084739</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-580101390820876288</t>
+          <t>t-925720058432811008</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -4548,7 +4548,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-580474226571915265</t>
+          <t>t-572808490965733378</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -4561,33 +4561,33 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-581395014502191104</t>
+          <t>t-831479807821103104</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-822759706078969856</t>
+          <t>t-831825002534154241</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-822817083591446532</t>
+          <t>t-889534953825779712</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -4600,7 +4600,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-601584910428729344</t>
+          <t>t-889639312169500672</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -4613,7 +4613,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-603639937368469504</t>
+          <t>t-1027967787312939008</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -4626,7 +4626,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-604106567907057664</t>
+          <t>t-601584910428729344</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -4639,7 +4639,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-605045307844337664</t>
+          <t>t-603639937368469504</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -4652,20 +4652,20 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-669944728155090944</t>
+          <t>t-604106567907057664</t>
         </is>
       </c>
       <c r="B325" t="n">
         <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-766980130283610112</t>
+          <t>t-605045307844337664</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -4678,20 +4678,20 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-786005533685710849</t>
+          <t>t-609930400341725185</t>
         </is>
       </c>
       <c r="B327" t="n">
         <v>0</v>
       </c>
       <c r="C327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-880307230364508160</t>
+          <t>t-609937116462604289</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -4704,7 +4704,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-912188711261036544</t>
+          <t>t-669944728155090944</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -4717,33 +4717,33 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-912397778260840448</t>
+          <t>t-880307230364508160</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-912428211253972997</t>
+          <t>t-912188711261036544</t>
         </is>
       </c>
       <c r="B331" t="n">
         <v>0</v>
       </c>
       <c r="C331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-1028993321757077505</t>
+          <t>t-912397778260840448</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -4756,7 +4756,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-1047259835777990656</t>
+          <t>t-912428211253972997</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -4769,11 +4769,11 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-1049990926406492160</t>
+          <t>t-1049670308142206978</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C334" t="n">
         <v>1</v>
@@ -4782,24 +4782,24 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-612283618052825088</t>
+          <t>t-622598644009668608</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-680032445673148416</t>
+          <t>t-646419866795118592</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C336" t="n">
         <v>1</v>
@@ -4808,59 +4808,59 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-735633517237919744</t>
+          <t>t-895489338364055553</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-771587937746071552</t>
+          <t>t-1006709802775412736</t>
         </is>
       </c>
       <c r="B338" t="n">
         <v>1</v>
       </c>
       <c r="C338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-719978473687633922</t>
+          <t>t-655890642334257152</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-651424335614353409</t>
+          <t>t-886426015374946304</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-651596952564572160</t>
+          <t>t-1027575306226475008</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -4873,7 +4873,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-756001538783326208</t>
+          <t>t-803234433000148994</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -4886,7 +4886,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-756128433025843200</t>
+          <t>t-803236909183107073</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -4899,7 +4899,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-756153001300156416</t>
+          <t>t-803260822801649664</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -4912,59 +4912,59 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-756172674531942400</t>
+          <t>t-803260889940062209</t>
         </is>
       </c>
       <c r="B345" t="n">
         <v>1</v>
       </c>
       <c r="C345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-667433104118833152</t>
+          <t>t-803271446357282816</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-1041361257410904064</t>
+          <t>t-667518003613818880</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-1041679427464298496</t>
+          <t>t-727600217265049600</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-667518003613818880</t>
+          <t>t-762742863394254850</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4977,7 +4977,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-727600217265049600</t>
+          <t>t-715587588204015616</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -4990,7 +4990,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-922944953696899072</t>
+          <t>t-867110157813075968</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -5003,20 +5003,20 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-922950403255341056</t>
+          <t>t-867380655289761792</t>
         </is>
       </c>
       <c r="B352" t="n">
         <v>1</v>
       </c>
       <c r="C352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-922959565792083968</t>
+          <t>t-867711994765471750</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -5029,11 +5029,11 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-803284826191171584</t>
+          <t>t-867724212827545601</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C354" t="n">
         <v>1</v>
@@ -5042,63 +5042,63 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-679420394223345665</t>
+          <t>t-868084138674454528</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-736405703838044160</t>
+          <t>t-868161755167547394</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-846003285282697216</t>
+          <t>t-868563701057679360</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-848401927432019970</t>
+          <t>t-869251443236249600</t>
         </is>
       </c>
       <c r="B358" t="n">
         <v>0</v>
       </c>
       <c r="C358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-716262349536149504</t>
+          <t>t-869321042807988224</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C359" t="n">
         <v>0</v>
@@ -5107,20 +5107,20 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-859881873865973760</t>
+          <t>t-869576732906532865</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-859891336627048448</t>
+          <t>t-842138233173626880</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -5133,7 +5133,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-859891655167664129</t>
+          <t>t-842141623454687232</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -5146,50 +5146,50 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-744360846420107265</t>
+          <t>t-842494366820286465</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-749466819581411328</t>
+          <t>t-715468390047961088</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-751197637794230272</t>
+          <t>t-910172109506273280</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-1011820273774006272</t>
+          <t>t-744360846420107265</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C366" t="n">
         <v>0</v>
@@ -5198,33 +5198,33 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-1012308763422937089</t>
+          <t>t-1011820273774006272</t>
         </is>
       </c>
       <c r="B367" t="n">
         <v>1</v>
       </c>
       <c r="C367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-1029396532313968640</t>
+          <t>t-1012308763422937089</t>
         </is>
       </c>
       <c r="B368" t="n">
         <v>1</v>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-1029397392343425024</t>
+          <t>t-768829814824247296</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -5237,50 +5237,50 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-1029408763877498885</t>
+          <t>t-768861970195881986</t>
         </is>
       </c>
       <c r="B370" t="n">
         <v>1</v>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-1029408838305361921</t>
+          <t>t-768886684955975680</t>
         </is>
       </c>
       <c r="B371" t="n">
         <v>1</v>
       </c>
       <c r="C371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-1029566349918527488</t>
+          <t>t-769194684576960513</t>
         </is>
       </c>
       <c r="B372" t="n">
         <v>1</v>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-1046763431649574912</t>
+          <t>t-965898424523591681</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C373" t="n">
         <v>0</v>
@@ -5289,7 +5289,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-911704954636824576</t>
+          <t>t-1032899444918898688</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -5302,7 +5302,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-996559091932770305</t>
+          <t>t-996488939933401088</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -5315,7 +5315,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-772460103026868224</t>
+          <t>t-796435007673946112</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -5328,7 +5328,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-913112779548176384</t>
+          <t>t-796529318373584896</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -5341,7 +5341,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-922899400032178176</t>
+          <t>t-796701113995104256</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -5354,33 +5354,33 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-922934157185110016</t>
+          <t>t-796745584795389952</t>
         </is>
       </c>
       <c r="B379" t="n">
         <v>1</v>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-768829814824247296</t>
+          <t>t-814469186323939328</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-768861970195881986</t>
+          <t>t-850470638624133120</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -5393,33 +5393,33 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-768886684955975680</t>
+          <t>t-939854628749004801</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-769194684576960513</t>
+          <t>t-830540407763300352</t>
         </is>
       </c>
       <c r="B383" t="n">
         <v>1</v>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-965898424523591681</t>
+          <t>t-861539001962041345</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -5432,11 +5432,11 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-779066799077851136</t>
+          <t>t-848529770258288642</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C385" t="n">
         <v>0</v>
@@ -5445,11 +5445,11 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-897110070059728897</t>
+          <t>t-850386711385260034</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C386" t="n">
         <v>0</v>
@@ -5458,7 +5458,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-897827875231080448</t>
+          <t>t-891439389787774978</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -5471,7 +5471,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-797647100565716992</t>
+          <t>t-891452469061996544</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -5484,7 +5484,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-797655572573143040</t>
+          <t>t-966639239407525888</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -5497,24 +5497,24 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-797814805772046336</t>
+          <t>t-906573891346165760</t>
         </is>
       </c>
       <c r="B390" t="n">
         <v>1</v>
       </c>
       <c r="C390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-847243626082050048</t>
+          <t>t-894457279076020224</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C391" t="n">
         <v>0</v>
@@ -5523,24 +5523,24 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-847412512383356932</t>
+          <t>t-542806015075713026</t>
         </is>
       </c>
       <c r="B392" t="n">
         <v>0</v>
       </c>
       <c r="C392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-847416452424519680</t>
+          <t>t-630691491766251520</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C393" t="n">
         <v>0</v>
@@ -5549,11 +5549,11 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-847625871712112640</t>
+          <t>t-702986489890775040</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C394" t="n">
         <v>0</v>
@@ -5562,7 +5562,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-847873968065433600</t>
+          <t>t-703410728628305920</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -5575,7 +5575,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-848285144846921728</t>
+          <t>t-991032269405073408</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -5588,11 +5588,11 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-848349687950266373</t>
+          <t>t-991077450368061440</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C397" t="n">
         <v>0</v>
@@ -5601,46 +5601,46 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-848632201470259200</t>
+          <t>t-1027253242261069824</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-848638922687221760</t>
+          <t>t-927168021512126464</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-848870222769606658</t>
+          <t>t-737657149174730753</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-848971430775709697</t>
+          <t>t-737657922885423104</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -5653,24 +5653,24 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-849083151532032000</t>
+          <t>t-738291666285694976</t>
         </is>
       </c>
       <c r="B402" t="n">
         <v>1</v>
       </c>
       <c r="C402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-849228504088670208</t>
+          <t>t-750337554457694208</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C403" t="n">
         <v>0</v>
@@ -5679,7 +5679,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-852608222380924929</t>
+          <t>t-1001002093895921665</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -5692,11 +5692,11 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-852804949515698178</t>
+          <t>t-1027294707855048705</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C405" t="n">
         <v>1</v>
@@ -5705,20 +5705,20 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-830540407763300352</t>
+          <t>t-931216910477414400</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-834760589746569216</t>
+          <t>t-529737265317421056</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -5731,11 +5731,11 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-848529770258288642</t>
+          <t>t-586533262912315392</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C408" t="n">
         <v>0</v>
@@ -5744,37 +5744,37 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-849301263959420929</t>
+          <t>t-615884908238651393</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-860847907427233792</t>
+          <t>t-738967171397758976</t>
         </is>
       </c>
       <c r="B410" t="n">
         <v>0</v>
       </c>
       <c r="C410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-884885746984681473</t>
+          <t>t-909677183328751616</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C411" t="n">
         <v>1</v>
@@ -5783,7 +5783,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-884938114657128448</t>
+          <t>t-957342329127473158</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -5796,7 +5796,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-891439389787774978</t>
+          <t>t-538674754086244353</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -5809,7 +5809,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-891452469061996544</t>
+          <t>t-1027585082050207745</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -5822,7 +5822,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-951198867181236228</t>
+          <t>t-1049943076859461632</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -5835,33 +5835,33 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-499943241962487808</t>
+          <t>t-642582982285504512</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-542806015075713026</t>
+          <t>t-677902230650003457</t>
         </is>
       </c>
       <c r="B417" t="n">
         <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-621860106481762304</t>
+          <t>t-914844848359985152</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -5874,33 +5874,33 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-708340740556980225</t>
+          <t>t-915131811310714880</t>
         </is>
       </c>
       <c r="B419" t="n">
         <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-850388688303529986</t>
+          <t>t-915495031691235329</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-850540226590253057</t>
+          <t>t-915561177966505984</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -5913,24 +5913,24 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-912723744195596289</t>
+          <t>t-950088164777123841</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-970747848747778048</t>
+          <t>t-950818741209747456</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C423" t="n">
         <v>0</v>
@@ -5939,11 +5939,11 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-989520576460001280</t>
+          <t>t-951169520584024064</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C424" t="n">
         <v>0</v>
@@ -5952,37 +5952,37 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-517603456123944960</t>
+          <t>t-951600654866317313</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-517609652138569728</t>
+          <t>t-951687956045156352</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-518412519053221888</t>
+          <t>t-987423120817643520</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C427" t="n">
         <v>1</v>
@@ -5991,11 +5991,11 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-519245102263574528</t>
+          <t>t-1006399568249008128</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C428" t="n">
         <v>0</v>
@@ -6004,63 +6004,63 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-519387709392314368</t>
+          <t>t-1006422910762995712</t>
         </is>
       </c>
       <c r="B429" t="n">
         <v>1</v>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-519393743326441472</t>
+          <t>t-1006422931839299584</t>
         </is>
       </c>
       <c r="B430" t="n">
         <v>1</v>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-519395800687083520</t>
+          <t>t-1006427045709180929</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-519401695307390976</t>
+          <t>t-1006463635693203456</t>
         </is>
       </c>
       <c r="B432" t="n">
         <v>1</v>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-538351189679939584</t>
+          <t>t-1024937575906271233</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C433" t="n">
         <v>0</v>
@@ -6069,7 +6069,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-824672856466423809</t>
+          <t>t-649269312625209344</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -6082,20 +6082,20 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-927168021512126464</t>
+          <t>t-764828802384007168</t>
         </is>
       </c>
       <c r="B435" t="n">
         <v>0</v>
       </c>
       <c r="C435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-1051696567651106816</t>
+          <t>t-816609916018454528</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -6108,7 +6108,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-1051874637942947840</t>
+          <t>t-712150675111727105</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -6121,33 +6121,33 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-517992573227778048</t>
+          <t>t-818362228881719296</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-591229240311439360</t>
+          <t>t-818369931054030848</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-520483074711486464</t>
+          <t>t-818390305326137344</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -6160,33 +6160,33 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-520499948983304192</t>
+          <t>t-818474161949601796</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-520513908759859200</t>
+          <t>t-818513625468010496</t>
         </is>
       </c>
       <c r="B442" t="n">
         <v>1</v>
       </c>
       <c r="C442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-722253771867181056</t>
+          <t>t-818701658280628224</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -6199,7 +6199,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-722818069320470529</t>
+          <t>t-818709014498443264</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -6212,7 +6212,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-722837910135832577</t>
+          <t>t-819113813505146880</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -6225,7 +6225,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-722884869374619648</t>
+          <t>t-972395558735368192</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -6238,7 +6238,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-723517423786299392</t>
+          <t>t-1018785093295464448</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -6251,7 +6251,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-615884908238651393</t>
+          <t>t-987343892633747456</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -6264,7 +6264,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-738967171397758976</t>
+          <t>t-567369806647951362</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -6277,7 +6277,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-909677183328751616</t>
+          <t>t-567639888489500672</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -6290,24 +6290,24 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-951835055445413893</t>
+          <t>t-657116242692734976</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-955489372547305472</t>
+          <t>t-570985250324656128</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C452" t="n">
         <v>0</v>
@@ -6316,20 +6316,20 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-955838886860787712</t>
+          <t>t-571078007407775744</t>
         </is>
       </c>
       <c r="B453" t="n">
         <v>1</v>
       </c>
       <c r="C453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-956166896012939265</t>
+          <t>t-571808211742814209</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -6342,20 +6342,20 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-957342329127473158</t>
+          <t>t-670699425879191552</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-627009098568073216</t>
+          <t>t-1024201138277638144</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -6368,24 +6368,24 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-788324770765008896</t>
+          <t>t-988840187785568257</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-955738647663431681</t>
+          <t>t-1005061843843289088</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C458" t="n">
         <v>1</v>
@@ -6394,76 +6394,76 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-955740876436844544</t>
+          <t>t-957917970390450177</t>
         </is>
       </c>
       <c r="B459" t="n">
         <v>1</v>
       </c>
       <c r="C459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-956201264915910656</t>
+          <t>t-591541513768673280</t>
         </is>
       </c>
       <c r="B460" t="n">
         <v>1</v>
       </c>
       <c r="C460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-653264904581984256</t>
+          <t>t-956419595136585729</t>
         </is>
       </c>
       <c r="B461" t="n">
         <v>0</v>
       </c>
       <c r="C461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-653992755027386368</t>
+          <t>t-720146113794183169</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-925333063336321024</t>
+          <t>t-728815708801531904</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-933614181286318081</t>
+          <t>t-728860742099849216</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C464" t="n">
         <v>0</v>
@@ -6472,24 +6472,24 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-933625586442035205</t>
+          <t>t-605693478799065088</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-987423120817643520</t>
+          <t>t-605727874348384256</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C466" t="n">
         <v>1</v>
@@ -6498,20 +6498,20 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-1060529365962948608</t>
+          <t>t-605802486604046337</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-542716499115642881</t>
+          <t>t-605842449722777601</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -6524,11 +6524,11 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-580823195311276032</t>
+          <t>t-605899935117017088</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C469" t="n">
         <v>0</v>
@@ -6537,24 +6537,24 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-653928809671081984</t>
+          <t>t-753246884345487361</t>
         </is>
       </c>
       <c r="B470" t="n">
         <v>0</v>
       </c>
       <c r="C470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-740095983602782208</t>
+          <t>t-873880943819460609</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C471" t="n">
         <v>1</v>
@@ -6563,7 +6563,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-816609916018454528</t>
+          <t>t-874034580747104259</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -6576,11 +6576,11 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-846728089912643588</t>
+          <t>t-874852269765931008</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C473" t="n">
         <v>0</v>
@@ -6589,7 +6589,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-823181666160144384</t>
+          <t>t-994824289349242881</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -6602,7 +6602,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-828957006832795648</t>
+          <t>t-994897053523341314</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -6615,33 +6615,33 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-1057351782484115458</t>
+          <t>t-995019257841889281</t>
         </is>
       </c>
       <c r="B476" t="n">
         <v>0</v>
       </c>
       <c r="C476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-837620098416459776</t>
+          <t>t-995256568429064192</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-707530442468098049</t>
+          <t>t-1017675550318612480</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -6654,33 +6654,33 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-707587020831518720</t>
+          <t>t-618340855657721856</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-575707186204180480</t>
+          <t>t-623896530324467712</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-888068991020929025</t>
+          <t>t-1013800752567996416</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -6693,7 +6693,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-577532478912663552</t>
+          <t>t-1006630570447777793</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -6706,7 +6706,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-861227956118716416</t>
+          <t>t-656869699980955649</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -6719,46 +6719,46 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-869260706524397568</t>
+          <t>t-657672314465726464</t>
         </is>
       </c>
       <c r="B484" t="n">
         <v>1</v>
       </c>
       <c r="C484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-1024201138277638144</t>
+          <t>t-660041764225589248</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-580746776262545409</t>
+          <t>t-1004612435792232448</t>
         </is>
       </c>
       <c r="B486" t="n">
         <v>0</v>
       </c>
       <c r="C486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-859839256700882944</t>
+          <t>t-669879511748579329</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -6771,7 +6771,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-860843222091935744</t>
+          <t>t-670195512713330689</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -6784,7 +6784,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-861496628741640192</t>
+          <t>t-685089211784019968</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -6797,20 +6797,20 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-993886363249455104</t>
+          <t>t-829095437466533888</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-737201412497649664</t>
+          <t>t-703191098403872769</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -6823,20 +6823,20 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-737877218718797825</t>
+          <t>t-703191473269780480</t>
         </is>
       </c>
       <c r="B492" t="n">
         <v>1</v>
       </c>
       <c r="C492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-738015379373625344</t>
+          <t>t-703218090671214592</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -6849,46 +6849,46 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-738097397058932736</t>
+          <t>t-703248568765779969</t>
         </is>
       </c>
       <c r="B494" t="n">
         <v>1</v>
       </c>
       <c r="C494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-738253541266075652</t>
+          <t>t-703357904250757120</t>
         </is>
       </c>
       <c r="B495" t="n">
         <v>1</v>
       </c>
       <c r="C495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-738419452778274816</t>
+          <t>t-703380366254612480</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-738714074352123904</t>
+          <t>t-703605156500381696</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -6901,7 +6901,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-892583343426072576</t>
+          <t>t-728492484175745024</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -6914,7 +6914,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-801458708786151425</t>
+          <t>t-953202460994232320</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -6927,7 +6927,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-956419595136585729</t>
+          <t>t-953212881809518592</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -6940,24 +6940,24 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-720146113794183169</t>
+          <t>t-1062323949680373760</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-948800001890713600</t>
+          <t>t-737558350011867138</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C502" t="n">
         <v>0</v>
@@ -6966,20 +6966,20 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-1050165943790460929</t>
+          <t>t-738417908926320643</t>
         </is>
       </c>
       <c r="B503" t="n">
         <v>1</v>
       </c>
       <c r="C503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-608689054549471232</t>
+          <t>t-738664460173381632</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -6992,33 +6992,33 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-753246884345487361</t>
+          <t>t-949613613874077704</t>
         </is>
       </c>
       <c r="B505" t="n">
         <v>0</v>
       </c>
       <c r="C505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-916986223478140928</t>
+          <t>t-1006483455209766912</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-1008938317684060160</t>
+          <t>t-1006781895278055424</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -7031,24 +7031,24 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-1008975928465248256</t>
+          <t>t-1006804114234322945</t>
         </is>
       </c>
       <c r="B508" t="n">
         <v>1</v>
       </c>
       <c r="C508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-1008978373484400640</t>
+          <t>t-933719239126642689</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C509" t="n">
         <v>1</v>
@@ -7057,33 +7057,33 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-1008995195113918464</t>
+          <t>t-738019407536984064</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-1009346793090506752</t>
+          <t>t-738062401308917760</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-1009539540728639490</t>
+          <t>t-738968020773703680</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -7096,24 +7096,24 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-1010058406223400966</t>
+          <t>t-739102239302770689</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-1011026406564823042</t>
+          <t>t-739132972742418432</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C514" t="n">
         <v>1</v>
@@ -7122,37 +7122,37 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-641169109116293120</t>
+          <t>t-739365982360178688</t>
         </is>
       </c>
       <c r="B515" t="n">
         <v>1</v>
       </c>
       <c r="C515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-899696948046856192</t>
+          <t>t-739454625393324032</t>
         </is>
       </c>
       <c r="B516" t="n">
         <v>1</v>
       </c>
       <c r="C516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-1013800752567996416</t>
+          <t>t-949338992599883776</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C517" t="n">
         <v>0</v>
@@ -7161,33 +7161,33 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-642781966346010625</t>
+          <t>t-949550500269166593</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-643095780228771840</t>
+          <t>t-738250548865032192</t>
         </is>
       </c>
       <c r="B519" t="n">
         <v>1</v>
       </c>
       <c r="C519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-643795122480631808</t>
+          <t>t-738751926372827136</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -7200,7 +7200,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-650407824212660224</t>
+          <t>t-957730126799802368</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -7213,7 +7213,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-650415832523255809</t>
+          <t>t-739230360207261700</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -7226,7 +7226,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-650581180757073921</t>
+          <t>t-740264154712449024</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -7239,20 +7239,20 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-650584856162926592</t>
+          <t>t-811198180654272512</t>
         </is>
       </c>
       <c r="B524" t="n">
         <v>1</v>
       </c>
       <c r="C524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-650605489492000769</t>
+          <t>t-1002274254954647552</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -7265,46 +7265,46 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-880072530329038848</t>
+          <t>t-1002283218085863430</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-953295637679951872</t>
+          <t>t-743445326611251200</t>
         </is>
       </c>
       <c r="B527" t="n">
         <v>1</v>
       </c>
       <c r="C527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-953311292475011072</t>
+          <t>t-824202245172592640</t>
         </is>
       </c>
       <c r="B528" t="n">
         <v>0</v>
       </c>
       <c r="C528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-984045729260982272</t>
+          <t>t-795263551388663808</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -7317,20 +7317,20 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-974126323248586752</t>
+          <t>t-801835115894755328</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-671784280259866624</t>
+          <t>t-960991499604328448</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -7343,7 +7343,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-943797632639610881</t>
+          <t>t-834984907881525249</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -7356,46 +7356,46 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-703191098403872769</t>
+          <t>t-852631745438601216</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-703191473269780480</t>
+          <t>t-989189175357276160</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-703218090671214592</t>
+          <t>t-990385513898094592</t>
         </is>
       </c>
       <c r="B535" t="n">
         <v>1</v>
       </c>
       <c r="C535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-703248568765779969</t>
+          <t>t-859444598309097473</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -7408,7 +7408,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-703357904250757120</t>
+          <t>t-859536182866317312</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -7421,7 +7421,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-703380366254612480</t>
+          <t>t-867414851802599424</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -7434,7 +7434,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-703605156500381696</t>
+          <t>t-946052034461040640</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -7447,7 +7447,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-704826129178370050</t>
+          <t>t-991783836206936065</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -7460,7 +7460,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-715202576552169472</t>
+          <t>t-886643817893560320</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -7473,7 +7473,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-730493187534413824</t>
+          <t>t-887813365304705024</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -7486,20 +7486,20 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-730679314916757504</t>
+          <t>t-894025914476105728</t>
         </is>
       </c>
       <c r="B543" t="n">
         <v>1</v>
       </c>
       <c r="C543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-736808558038265858</t>
+          <t>t-904852554470883329</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -7512,20 +7512,20 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-736607968997838848</t>
+          <t>t-953919004132986880</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-949613613874077704</t>
+          <t>t-970932114597335040</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -7538,11 +7538,11 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-737563920496349185</t>
+          <t>t-940225923332403204</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C547" t="n">
         <v>1</v>
@@ -7551,33 +7551,33 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-957301618868965376</t>
+          <t>t-940273268677849088</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-737703959993913344</t>
+          <t>t-949166298210082816</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-737753796202385408</t>
+          <t>t-949999091047477249</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -7590,7 +7590,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-737755886211477504</t>
+          <t>t-958848005502681088</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -7603,7 +7603,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-737784335567364096</t>
+          <t>t-959068004729475072</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -7616,24 +7616,24 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-737884729626791936</t>
+          <t>t-977185697940623360</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-737979350088323072</t>
+          <t>t-988323500330045442</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C554" t="n">
         <v>1</v>
@@ -7642,20 +7642,20 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-958391208602193920</t>
+          <t>t-992783370114433024</t>
         </is>
       </c>
       <c r="B555" t="n">
         <v>1</v>
       </c>
       <c r="C555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-957730126799802368</t>
+          <t>t-1003736255149027328</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -7668,20 +7668,20 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-906057103172923392</t>
+          <t>t-1030184521969410055</t>
         </is>
       </c>
       <c r="B557" t="n">
         <v>1</v>
       </c>
       <c r="C557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-755694559401762816</t>
+          <t>t-494327833263874048</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -7694,7 +7694,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-792319235351535616</t>
+          <t>t-845604671851057152</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -7707,11 +7707,11 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-801835115894755328</t>
+          <t>t-512537797442273280</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C560" t="n">
         <v>1</v>
@@ -7720,20 +7720,20 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-803544744215384064</t>
+          <t>t-620843348505432064</t>
         </is>
       </c>
       <c r="B561" t="n">
         <v>0</v>
       </c>
       <c r="C561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-960991499604328448</t>
+          <t>t-676377478168862721</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -7746,7 +7746,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-834314501134614528</t>
+          <t>t-677293991713308673</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -7759,11 +7759,11 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-834984907881525249</t>
+          <t>t-678077110070566912</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C564" t="n">
         <v>0</v>
@@ -7772,7 +7772,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-844564313012670464</t>
+          <t>t-740084104088199168</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -7785,11 +7785,11 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-851409413646802945</t>
+          <t>t-785398387059269632</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C566" t="n">
         <v>1</v>
@@ -7798,7 +7798,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-852898298344099840</t>
+          <t>t-921445800072298496</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -7811,33 +7811,33 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-854059785049788419</t>
+          <t>t-922085813818658816</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-904852554470883329</t>
+          <t>t-927545172220694528</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-913806353851969537</t>
+          <t>t-927729703523270657</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -7850,7 +7850,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-956067919263346688</t>
+          <t>t-927758071429939200</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -7863,7 +7863,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-956083408882536448</t>
+          <t>t-927766985911312384</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -7876,7 +7876,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-1043100641466490881</t>
+          <t>t-928074662826745856</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -7889,33 +7889,33 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-1043534562775781377</t>
+          <t>t-928076971581378560</t>
         </is>
       </c>
       <c r="B574" t="n">
         <v>1</v>
       </c>
       <c r="C574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-494327833263874048</t>
+          <t>t-928123673919348741</t>
         </is>
       </c>
       <c r="B575" t="n">
         <v>1</v>
       </c>
       <c r="C575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-590545916886659072</t>
+          <t>t-928519035205095424</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -7928,24 +7928,24 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-845604671851057152</t>
+          <t>t-928568681545728000</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-572446866039697408</t>
+          <t>t-928619706227023872</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C578" t="n">
         <v>1</v>
@@ -7954,24 +7954,24 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-579789832131575808</t>
+          <t>t-928900021390577664</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-580874616324943872</t>
+          <t>t-928909590627942400</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C580" t="n">
         <v>0</v>
@@ -7980,7 +7980,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-695965752088723456</t>
+          <t>t-928993443942105088</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -7993,7 +7993,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-695968588012752896</t>
+          <t>t-940565575226372102</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -8006,11 +8006,11 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-788186519307563010</t>
+          <t>t-940637216757477377</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C583" t="n">
         <v>1</v>
@@ -8019,46 +8019,46 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-814010823689408512</t>
+          <t>t-520490218210594817</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-835120033412038656</t>
+          <t>t-632870673115774976</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-890567544695906304</t>
+          <t>t-706517570451427328</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-499804424827457538</t>
+          <t>t-732742567545077761</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -8071,20 +8071,20 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-499826521846972416</t>
+          <t>t-732880819631460356</t>
         </is>
       </c>
       <c r="B588" t="n">
         <v>1</v>
       </c>
       <c r="C588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-632870673115774976</t>
+          <t>t-732926405818753025</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -8097,24 +8097,24 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-675258412049956865</t>
+          <t>t-733131015837745153</t>
         </is>
       </c>
       <c r="B590" t="n">
         <v>1</v>
       </c>
       <c r="C590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-710310372985741313</t>
+          <t>t-733131209660735493</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C591" t="n">
         <v>1</v>
@@ -8123,7 +8123,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-728392912636149760</t>
+          <t>t-733188233803128832</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -8136,46 +8136,46 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-871870603011043328</t>
+          <t>t-733201290151514113</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-872126007855038464</t>
+          <t>t-782517721938300928</t>
         </is>
       </c>
       <c r="B594" t="n">
         <v>0</v>
       </c>
       <c r="C594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-976046458834116609</t>
+          <t>t-864437375618830336</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-532513757776183296</t>
+          <t>t-519137345065320448</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -8188,7 +8188,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-536372518622212096</t>
+          <t>t-561132509098827778</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -8201,7 +8201,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-536830333530804225</t>
+          <t>t-583500409458688000</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -8214,7 +8214,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-536843974086897664</t>
+          <t>t-583500450495795200</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -8227,7 +8227,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-546829406539243520</t>
+          <t>t-583501741481594881</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -8240,7 +8240,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-546846288554500096</t>
+          <t>t-583504251168497664</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -8253,7 +8253,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-547603292180578305</t>
+          <t>t-583504875067056129</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -8266,11 +8266,11 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-547621920103862272</t>
+          <t>t-584246834618474497</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C603" t="n">
         <v>1</v>
@@ -8279,7 +8279,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-547636294059184128</t>
+          <t>t-587184590302814208</t>
         </is>
       </c>
       <c r="B604" t="n">
@@ -8292,7 +8292,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-547637054578769920</t>
+          <t>t-587194258815221760</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -8305,7 +8305,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-571610231173599232</t>
+          <t>t-587194893052747777</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -8318,7 +8318,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-583500409458688000</t>
+          <t>t-605261202822807552</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -8331,7 +8331,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-583500450495795200</t>
+          <t>t-605672293654654976</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,7 +8344,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-583501741481594881</t>
+          <t>t-662632429539057666</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -8357,7 +8357,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-583504251168497664</t>
+          <t>t-662681193154920448</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -8370,24 +8370,24 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-583504875067056129</t>
+          <t>t-663567974029131776</t>
         </is>
       </c>
       <c r="B611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-584246834618474497</t>
+          <t>t-685773216275533824</t>
         </is>
       </c>
       <c r="B612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C612" t="n">
         <v>1</v>
@@ -8396,20 +8396,20 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-662632429539057666</t>
+          <t>t-718078465698881536</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-662681193154920448</t>
+          <t>t-718738885862232064</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -8422,33 +8422,33 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-663567974029131776</t>
+          <t>t-718790966774083584</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-713640428369612800</t>
+          <t>t-784943243364487168</t>
         </is>
       </c>
       <c r="B616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-713641932795215874</t>
+          <t>t-785071804276576256</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -8461,7 +8461,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-713645035460251648</t>
+          <t>t-786121283209564160</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,7 +8474,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-713649642907406336</t>
+          <t>t-787201722892455936</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -8487,7 +8487,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-713682083688767488</t>
+          <t>t-787228854490243072</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -8500,7 +8500,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-714598783724597248</t>
+          <t>t-799522784040849408</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,7 +8513,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-714729459107119104</t>
+          <t>t-834984646416842753</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -8526,7 +8526,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-715080311059517440</t>
+          <t>t-834986851718946816</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -8539,7 +8539,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-721601854761619457</t>
+          <t>t-835051963096121344</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,33 +8552,33 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-721697193174798336</t>
+          <t>t-842271490141634560</t>
         </is>
       </c>
       <c r="B625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-749065341586726912</t>
+          <t>t-842322052103122944</t>
         </is>
       </c>
       <c r="B626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-769774311968079872</t>
+          <t>t-842905808266448896</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -8591,11 +8591,11 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-792955986956824576</t>
+          <t>t-842910185718931456</t>
         </is>
       </c>
       <c r="B628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C628" t="n">
         <v>1</v>
@@ -8604,20 +8604,20 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-793029205319491584</t>
+          <t>t-912888084739641344</t>
         </is>
       </c>
       <c r="B629" t="n">
         <v>1</v>
       </c>
       <c r="C629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-793055195232018432</t>
+          <t>t-913276391470227456</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -8630,46 +8630,46 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-807384780572459008</t>
+          <t>t-931079635575586816</t>
         </is>
       </c>
       <c r="B631" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C631" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-836823983353909248</t>
+          <t>t-931432910795653120</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C632" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-839825336552468480</t>
+          <t>t-932133115748696064</t>
         </is>
       </c>
       <c r="B633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-868766918035079168</t>
+          <t>t-932454853443334144</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -8682,11 +8682,11 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-931079635575586816</t>
+          <t>t-529909835525939202</t>
         </is>
       </c>
       <c r="B635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C635" t="n">
         <v>1</v>
@@ -8695,7 +8695,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-931432910795653120</t>
+          <t>t-756176490119647232</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -8708,11 +8708,11 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-932133115748696064</t>
+          <t>t-830849870890102784</t>
         </is>
       </c>
       <c r="B637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C637" t="n">
         <v>0</v>
@@ -8721,7 +8721,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-932454853443334144</t>
+          <t>t-830867426568867840</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,7 +8734,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-976030387188137984</t>
+          <t>t-831995329318772736</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -8747,7 +8747,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-976030855033319425</t>
+          <t>t-961643380684959749</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,24 +8760,24 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-976037405776990208</t>
+          <t>t-1062500554134310912</t>
         </is>
       </c>
       <c r="B641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-1036192189947281408</t>
+          <t>t-678547534269177856</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C642" t="n">
         <v>1</v>
@@ -8786,11 +8786,11 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-529909835525939202</t>
+          <t>t-768634144851013633</t>
         </is>
       </c>
       <c r="B643" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C643" t="n">
         <v>1</v>
@@ -8799,7 +8799,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-548367743385624577</t>
+          <t>t-769506262551715840</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -8812,46 +8812,46 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-586217765666623488</t>
+          <t>t-929369497420685312</t>
         </is>
       </c>
       <c r="B645" t="n">
         <v>0</v>
       </c>
       <c r="C645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-830849870890102784</t>
+          <t>t-936830929384828928</t>
         </is>
       </c>
       <c r="B646" t="n">
         <v>1</v>
       </c>
       <c r="C646" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-830867426568867840</t>
+          <t>t-936988511051292672</t>
         </is>
       </c>
       <c r="B647" t="n">
         <v>1</v>
       </c>
       <c r="C647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-964120690952564737</t>
+          <t>t-523431319012139009</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -8864,11 +8864,11 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-518708677113438208</t>
+          <t>t-696949735576489985</t>
         </is>
       </c>
       <c r="B649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C649" t="n">
         <v>1</v>
@@ -8877,20 +8877,20 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-535750936824528896</t>
+          <t>t-697001638108598272</t>
         </is>
       </c>
       <c r="B650" t="n">
         <v>1</v>
       </c>
       <c r="C650" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-535750956848140288</t>
+          <t>t-757366725759242240</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -8903,7 +8903,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-535751324143341568</t>
+          <t>t-757494302339571712</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,7 +8916,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-535754365856776193</t>
+          <t>t-757771911346749441</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,7 +8929,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-535786478451048448</t>
+          <t>t-757882635976790016</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -8942,59 +8942,59 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-550981789649735680</t>
+          <t>t-758521629890650113</t>
         </is>
       </c>
       <c r="B655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-676067082081976320</t>
+          <t>t-829520315575177217</t>
         </is>
       </c>
       <c r="B656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-795674749028462592</t>
+          <t>t-919610638351003649</t>
         </is>
       </c>
       <c r="B657" t="n">
         <v>1</v>
       </c>
       <c r="C657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-929369497420685312</t>
+          <t>t-919611818183503872</t>
         </is>
       </c>
       <c r="B658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-989542585978052610</t>
+          <t>t-919614704967757825</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -9007,11 +9007,11 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-1000752833484881921</t>
+          <t>t-919712337681985537</t>
         </is>
       </c>
       <c r="B660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C660" t="n">
         <v>1</v>
@@ -9020,76 +9020,76 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-1001352081465212928</t>
+          <t>t-919728404907167744</t>
         </is>
       </c>
       <c r="B661" t="n">
         <v>1</v>
       </c>
       <c r="C661" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-521700184376770560</t>
+          <t>t-919751765871886336</t>
         </is>
       </c>
       <c r="B662" t="n">
         <v>1</v>
       </c>
       <c r="C662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-551339874838908928</t>
+          <t>t-919766847666274304</t>
         </is>
       </c>
       <c r="B663" t="n">
         <v>1</v>
       </c>
       <c r="C663" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-565428032685740033</t>
+          <t>t-919943414766063617</t>
         </is>
       </c>
       <c r="B664" t="n">
         <v>1</v>
       </c>
       <c r="C664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-716900054133399553</t>
+          <t>t-920179252292739072</t>
         </is>
       </c>
       <c r="B665" t="n">
         <v>1</v>
       </c>
       <c r="C665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-830684745323327488</t>
+          <t>t-920416544319926272</t>
         </is>
       </c>
       <c r="B666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C666" t="n">
         <v>1</v>
@@ -9098,11 +9098,11 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-832183739346063361</t>
+          <t>t-564676313139531776</t>
         </is>
       </c>
       <c r="B667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C667" t="n">
         <v>1</v>
@@ -9111,11 +9111,11 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-836878014587744257</t>
+          <t>t-564736068306878464</t>
         </is>
       </c>
       <c r="B668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C668" t="n">
         <v>1</v>
@@ -9124,20 +9124,20 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-666809196977909760</t>
+          <t>t-757365069608923136</t>
         </is>
       </c>
       <c r="B669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-689731867570900992</t>
+          <t>t-817285829861093377</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -9150,20 +9150,20 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-699788036561743872</t>
+          <t>t-852718859765202945</t>
         </is>
       </c>
       <c r="B671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-833843048253681665</t>
+          <t>t-852739972473868290</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -9176,7 +9176,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-834648744150892546</t>
+          <t>t-534644762553229312</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -9189,7 +9189,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-852718859765202945</t>
+          <t>t-535211715454332929</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -9202,20 +9202,20 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-852739972473868290</t>
+          <t>t-535234909267578880</t>
         </is>
       </c>
       <c r="B675" t="n">
         <v>1</v>
       </c>
       <c r="C675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-534644762553229312</t>
+          <t>t-535323782999977985</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -9228,24 +9228,24 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-535211715454332929</t>
+          <t>t-536050657384333312</t>
         </is>
       </c>
       <c r="B677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-535234909267578880</t>
+          <t>t-536689861890035712</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C678" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-535323782999977985</t>
+          <t>t-544711019629907968</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -9267,24 +9267,24 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-536050657384333312</t>
+          <t>t-544769671799394304</t>
         </is>
       </c>
       <c r="B680" t="n">
         <v>0</v>
       </c>
       <c r="C680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-536689861890035712</t>
+          <t>t-544813894037147648</t>
         </is>
       </c>
       <c r="B681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C681" t="n">
         <v>1</v>
@@ -9293,20 +9293,20 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-668452855993511936</t>
+          <t>t-545169541052243968</t>
         </is>
       </c>
       <c r="B682" t="n">
         <v>1</v>
       </c>
       <c r="C682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-798752071239409665</t>
+          <t>t-547033780322455552</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -9319,7 +9319,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-670770027604213760</t>
+          <t>t-547601049230782464</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -9332,50 +9332,50 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-540776934658277377</t>
+          <t>t-548131100095442945</t>
         </is>
       </c>
       <c r="B685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-558414856756293634</t>
+          <t>t-668452855993511936</t>
         </is>
       </c>
       <c r="B686" t="n">
         <v>1</v>
       </c>
       <c r="C686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-558416982677422081</t>
+          <t>t-734168300121395200</t>
         </is>
       </c>
       <c r="B687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-779194196724887553</t>
+          <t>t-822808230711721984</t>
         </is>
       </c>
       <c r="B688" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C688" t="n">
         <v>1</v>
@@ -9384,20 +9384,20 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-859771332908777474</t>
+          <t>t-935391382331588609</t>
         </is>
       </c>
       <c r="B689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-930711486019854336</t>
+          <t>t-935397608851324931</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -9410,11 +9410,11 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-931775243361779712</t>
+          <t>t-935407791757389824</t>
         </is>
       </c>
       <c r="B691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C691" t="n">
         <v>1</v>
@@ -9423,7 +9423,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-966989390873378816</t>
+          <t>t-670770027604213760</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,37 +9436,37 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-987943018454962177</t>
+          <t>t-715026472285708288</t>
         </is>
       </c>
       <c r="B693" t="n">
         <v>0</v>
       </c>
       <c r="C693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-1060932314279170048</t>
+          <t>t-753418052503502848</t>
         </is>
       </c>
       <c r="B694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-607931728045338625</t>
+          <t>t-779194196724887553</t>
         </is>
       </c>
       <c r="B695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C695" t="n">
         <v>1</v>
@@ -9475,7 +9475,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-666482399069343745</t>
+          <t>t-919895715089932288</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -9488,20 +9488,20 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-797685704197214209</t>
+          <t>t-544020486527528960</t>
         </is>
       </c>
       <c r="B697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-797694645522137093</t>
+          <t>t-577656940282540032</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -9514,20 +9514,20 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-798670554630762496</t>
+          <t>t-692022677649797120</t>
         </is>
       </c>
       <c r="B699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-960667988255850496</t>
+          <t>t-547361002212188160</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,7 +9540,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-547361002212188160</t>
+          <t>t-823731915236708352</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,7 +9553,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-823731915236708352</t>
+          <t>t-930542567199997958</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -9566,7 +9566,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-796490215078711296</t>
+          <t>t-857803058968838144</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -9579,7 +9579,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-599804476774436864</t>
+          <t>t-857867986841079808</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -9592,11 +9592,11 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-555130566706622465</t>
+          <t>t-993018034288705536</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C705" t="n">
         <v>1</v>
@@ -9605,11 +9605,11 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-941661763132579840</t>
+          <t>t-557074144505114625</t>
         </is>
       </c>
       <c r="B706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C706" t="n">
         <v>1</v>
@@ -9618,11 +9618,11 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-594000547591553024</t>
+          <t>t-941530453147836416</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C707" t="n">
         <v>0</v>
@@ -9631,7 +9631,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-594263552824741888</t>
+          <t>t-1037871134488707072</t>
         </is>
       </c>
       <c r="B708" t="n">
@@ -9644,20 +9644,20 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-594718318050684929</t>
+          <t>t-1037879643695529985</t>
         </is>
       </c>
       <c r="B709" t="n">
         <v>1</v>
       </c>
       <c r="C709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-595757559006507011</t>
+          <t>t-1037893136482103296</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -9670,7 +9670,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-704474821959163905</t>
+          <t>t-1037997508973060096</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -9683,20 +9683,20 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-775600763481436160</t>
+          <t>t-941661763132579840</t>
         </is>
       </c>
       <c r="B712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-978443713629204480</t>
+          <t>t-556107639625510912</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -9709,7 +9709,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-978559522900910080</t>
+          <t>t-558523740888109056</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -9722,20 +9722,20 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-979975965760720898</t>
+          <t>t-579496758595584000</t>
         </is>
       </c>
       <c r="B715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-579242361768677376</t>
+          <t>t-594000547591553024</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -9748,20 +9748,20 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-642718104875732992</t>
+          <t>t-594263552824741888</t>
         </is>
       </c>
       <c r="B717" t="n">
         <v>1</v>
       </c>
       <c r="C717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-718718501679017984</t>
+          <t>t-594718318050684929</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -9774,11 +9774,11 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-843318937064366080</t>
+          <t>t-595757559006507011</t>
         </is>
       </c>
       <c r="B719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C719" t="n">
         <v>1</v>
@@ -9787,11 +9787,11 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-845628167855357953</t>
+          <t>t-954254379967660032</t>
         </is>
       </c>
       <c r="B720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C720" t="n">
         <v>1</v>
@@ -9800,33 +9800,33 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-863292024522395649</t>
+          <t>t-564347457773920257</t>
         </is>
       </c>
       <c r="B721" t="n">
         <v>0</v>
       </c>
       <c r="C721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-683203716623646720</t>
+          <t>t-638407777333850112</t>
         </is>
       </c>
       <c r="B722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-691264325659422721</t>
+          <t>t-805321168580395008</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -9839,7 +9839,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-691280497184362497</t>
+          <t>t-870645957704265729</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -9852,7 +9852,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-785264263749308416</t>
+          <t>t-870651401311014912</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,7 +9865,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-785310124797669377</t>
+          <t>t-702366811925438465</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-785316828025421824</t>
+          <t>t-833819761821757440</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-785325402981924866</t>
+          <t>t-702431733740920832</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-785347096031268864</t>
+          <t>t-702439207684464640</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,11 +9917,11 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-786434119072821249</t>
+          <t>t-732116489394851840</t>
         </is>
       </c>
       <c r="B730" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C730" t="n">
         <v>1</v>
@@ -9930,13 +9930,26 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-798490523820380160</t>
+          <t>t-732306842290946048</t>
         </is>
       </c>
       <c r="B731" t="n">
         <v>1</v>
       </c>
       <c r="C731" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>t-797677972547219456</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>1</v>
+      </c>
+      <c r="C732" t="n">
         <v>1</v>
       </c>
     </row>
